--- a/output/instance_SMALL_scenario_2/dual_variables_iteration6.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration6.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.4502447193215516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.03412055046978901</v>
       </c>
       <c r="B16" t="n">
-        <v>1.708752345440617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1.703278132342283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6584691742162228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543287</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732871</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5195103932372775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1.013194205666438</v>
       </c>
     </row>
     <row r="62">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3988706.891200626</v>
+        <v>8263140.549510293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4148432.624873678</v>
+        <v>8152040.169620153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1178765.336640694</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration6.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration6.xlsx
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4502447193215516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03412055046978901</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.286967141090104</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543287</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -821,7 +821,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.4691391785999066</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -837,15 +837,15 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1.3222106800015</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.1180187419164171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477304</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.3232560766459875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.5837314435043842</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510293</v>
+        <v>3319108.402887601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8152040.169620153</v>
+        <v>2728602.857971512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>8442122.906447072</v>
       </c>
     </row>
   </sheetData>
